--- a/ExcelConfig/INDEX/INDEX.xlsx
+++ b/ExcelConfig/INDEX/INDEX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\测试\INDEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\IOTTest\ExcelConfig\INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:H4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,29 +567,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
